--- a/statistics/HistoricalDistanceData/historical_distance/Q60441838-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60441838-en.xlsx
@@ -31,91 +31,91 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
+    <t>New Hampshire: Election Tools, Deadlines, Dates, Rules, and Links</t>
+  </si>
+  <si>
+    <t>Sanders Still Leads in NH as Primary Nears, Poll Finds</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
+    <t>Biden Leads In New Hampshire Poll</t>
+  </si>
+  <si>
+    <t>EXCLUSIVE: N.H. Voters Oppose Medicare For All by 2-to-1 Margin</t>
+  </si>
+  <si>
+    <t>Center for Public Opinion</t>
+  </si>
+  <si>
     <t>Post NHJournal Poll Results</t>
   </si>
   <si>
-    <t>Center for Public Opinion</t>
-  </si>
-  <si>
-    <t>New Hampshire: Election Tools, Deadlines, Dates, Rules, and Links</t>
-  </si>
-  <si>
-    <t>Sanders Still Leads in NH as Primary Nears, Poll Finds</t>
-  </si>
-  <si>
-    <t>Biden Leads In New Hampshire Poll</t>
-  </si>
-  <si>
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
     <t>2020 Electoral Interactive Map</t>
   </si>
   <si>
-    <t>EXCLUSIVE: N.H. Voters Oppose Medicare For All by 2-to-1 Margin</t>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2020-02-02T17:15:03UTC</t>
+  </si>
+  <si>
+    <t>2020-09-29T21:30:00UTC</t>
+  </si>
+  <si>
+    <t>2020-02-07T13:54:55UTC</t>
   </si>
   <si>
     <t>2001-08-07T00:00:00UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2020-02-02T17:15:03UTC</t>
-  </si>
-  <si>
-    <t>2020-09-29T21:30:00UTC</t>
-  </si>
-  <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2020-02-07T13:54:55UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
+    <t>https://www.vote.org/state/new-hampshire/</t>
+  </si>
+  <si>
+    <t>https://www.nbcboston.com/news/politics/nh-primary-poll-sanders-still-leads/2070807/</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
+    <t>https://amgreatness.com/2020/09/29/biden-leads-in-new-hampshire-poll/</t>
+  </si>
+  <si>
+    <t>https://www.insidesources.com/n-h-voters-oppose-medicare-for-all-by-2-to-1-margin/</t>
+  </si>
+  <si>
+    <t>https://www.uml.edu/Research/public-opinion/polls/2020/NH-Sept.aspx</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1Z1lbFrjnIBmYZxWLZkzo_1nVg3uTRLcerSSauihlLdM/edit</t>
   </si>
   <si>
-    <t>https://www.uml.edu/Research/public-opinion/polls/2020/NH-Sept.aspx</t>
-  </si>
-  <si>
-    <t>https://www.vote.org/state/new-hampshire/</t>
-  </si>
-  <si>
-    <t>https://www.nbcboston.com/news/politics/nh-primary-poll-sanders-still-leads/2070807/</t>
-  </si>
-  <si>
-    <t>https://amgreatness.com/2020/09/29/biden-leads-in-new-hampshire-poll/</t>
-  </si>
-  <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
   </si>
   <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
-  </si>
-  <si>
     <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://www.insidesources.com/n-h-voters-oppose-medicare-for-all-by-2-to-1-margin/</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
@@ -599,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -616,7 +616,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -633,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -650,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -667,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -684,7 +684,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
